--- a/US_Template.xlsx
+++ b/US_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13060"/>
+    <workbookView windowWidth="28800" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Visitor List" sheetId="1" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>Company Full Name</t>
   </si>
   <si>
-    <t>Full Name As Per NRIC</t>
+    <t>Full Name</t>
   </si>
   <si>
-    <t>First Name as per NRIC</t>
+    <t>First Name</t>
   </si>
   <si>
-    <t>Middle and Last Name as per NRIC</t>
+    <t>Middle and Last Name</t>
   </si>
   <si>
     <t>Driver License Number</t>
@@ -956,7 +956,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:K953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
